--- a/portfolio_optimisation/Bond_Portfolio_Model_v5.xlsx
+++ b/portfolio_optimisation/Bond_Portfolio_Model_v5.xlsx
@@ -6249,7 +6249,7 @@
   <dimension ref="A1:DA238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
